--- a/PREGAME/1.ELICITACION/1.2 Cronograma/CronogramaActividadesGrupo 1.xlsx
+++ b/PREGAME/1.ELICITACION/1.2 Cronograma/CronogramaActividadesGrupo 1.xlsx
@@ -31,34 +31,34 @@
     <t>Asignado a</t>
   </si>
   <si>
-    <t>ERS</t>
+    <t>Revisar ERS</t>
   </si>
   <si>
     <t>Mateo Llumigusin</t>
   </si>
   <si>
-    <t>MatrizIREB</t>
-  </si>
-  <si>
-    <t>Preguntas FODA</t>
+    <t>Realizar MatrizIREB</t>
+  </si>
+  <si>
+    <t>Crear Preguntas FODA</t>
   </si>
   <si>
     <t>Richard Gualotuña</t>
   </si>
   <si>
-    <t>Entrevista</t>
+    <t>Realizar Entrevista</t>
   </si>
   <si>
     <t>Kevin Asmal</t>
   </si>
   <si>
-    <t>Creación Perfil Usuario V1</t>
-  </si>
-  <si>
-    <t>Creación Matriz HU</t>
-  </si>
-  <si>
-    <t>Primera revisión</t>
+    <t>Crear Perfil Usuario V1</t>
+  </si>
+  <si>
+    <t>Crear Matriz HU</t>
+  </si>
+  <si>
+    <t>Realizar primera revisión</t>
   </si>
   <si>
     <t>Jenny A Ruiz R</t>
@@ -192,7 +192,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
